--- a/data/hubs.xlsx
+++ b/data/hubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\GitHub\Marketing-e-Pricing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD7249D-AF38-4538-98F0-C1AED3319A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E2797A0-DAAC-4F00-8973-CCA480B00AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
